--- a/Data/0. Fieldwork documents to print/XLSX/Campaign – diving log.xlsx
+++ b/Data/0. Fieldwork documents to print/XLSX/Campaign – diving log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/Spring_2023/Fieldwork documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Library/Mobile Documents/com~apple~CloudDocs/Documents/Documents/Post-Doc/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/0. Fieldwork documents to print/XLSX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D79EB0C-8B0B-5D44-BDD0-09F16B905897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB4B45B-DBE6-EE4B-B515-FF79670BF672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16120" activeTab="1" xr2:uid="{FDACF82A-E1CA-8C4E-A6FC-0E4C82E6E99A}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16040" activeTab="1" xr2:uid="{FDACF82A-E1CA-8C4E-A6FC-0E4C82E6E99A}"/>
   </bookViews>
   <sheets>
     <sheet name="Transplants" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="271">
   <si>
     <t>Label alkalinity</t>
   </si>
@@ -774,6 +774,78 @@
   </si>
   <si>
     <t>T0_t1_AMB_blank_02</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_tile_01</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_tile_02</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_tile_03</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_blank_01</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_tile_04</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_tile_05</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_tile_06</t>
+  </si>
+  <si>
+    <t>T3_t1_ELOW_blank_02</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_tile_01</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_tile_02</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_tile_03</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_blank_01</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_tile_04</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_tile_05</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_tile_06</t>
+  </si>
+  <si>
+    <t>T3_t1_LOW_blank_02</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_01</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_02</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_03</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_blank_01</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_04</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_05</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_tile_06</t>
+  </si>
+  <si>
+    <t>T3_t1_AMB_blank_02</t>
   </si>
 </sst>
 </file>
@@ -1024,12 +1096,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1046,12 +1112,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1071,6 +1131,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1386,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29AEE5C-B596-BA4F-A024-AA305DFA68E3}">
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H285"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J223" sqref="J223"/>
+    <sheetView topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4834,6 +4906,864 @@
       <c r="G228" s="7"/>
       <c r="H228" s="7"/>
     </row>
+    <row r="229" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B229" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C229" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D229" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E229" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F229" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G229" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H229" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="1"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="3"/>
+    </row>
+    <row r="231" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="5">
+        <v>1</v>
+      </c>
+      <c r="F231" s="5"/>
+      <c r="G231" s="5"/>
+      <c r="H231" s="5"/>
+    </row>
+    <row r="232" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C232" s="7"/>
+      <c r="D232" s="7"/>
+      <c r="E232" s="7">
+        <v>2</v>
+      </c>
+      <c r="F232" s="7"/>
+      <c r="G232" s="7"/>
+      <c r="H232" s="7"/>
+    </row>
+    <row r="233" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C233" s="7"/>
+      <c r="D233" s="7"/>
+      <c r="E233" s="7">
+        <v>3</v>
+      </c>
+      <c r="F233" s="7"/>
+      <c r="G233" s="7"/>
+      <c r="H233" s="7"/>
+    </row>
+    <row r="234" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C234" s="7"/>
+      <c r="D234" s="7"/>
+      <c r="E234" s="7">
+        <v>4</v>
+      </c>
+      <c r="F234" s="7"/>
+      <c r="G234" s="7"/>
+      <c r="H234" s="7"/>
+    </row>
+    <row r="235" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="6"/>
+      <c r="B235" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C235" s="7"/>
+      <c r="D235" s="7"/>
+      <c r="E235" s="7">
+        <v>5</v>
+      </c>
+      <c r="F235" s="7"/>
+      <c r="G235" s="7"/>
+      <c r="H235" s="7"/>
+    </row>
+    <row r="236" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="6"/>
+      <c r="B236" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C236" s="7"/>
+      <c r="D236" s="7"/>
+      <c r="E236" s="7">
+        <v>6</v>
+      </c>
+      <c r="F236" s="7"/>
+      <c r="G236" s="7"/>
+      <c r="H236" s="7"/>
+    </row>
+    <row r="237" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="6"/>
+      <c r="B237" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C237" s="7"/>
+      <c r="D237" s="7"/>
+      <c r="E237" s="7">
+        <v>7</v>
+      </c>
+      <c r="F237" s="7"/>
+      <c r="G237" s="7"/>
+      <c r="H237" s="7"/>
+    </row>
+    <row r="238" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="8"/>
+      <c r="B238" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C238" s="9"/>
+      <c r="D238" s="9"/>
+      <c r="E238" s="9">
+        <v>8</v>
+      </c>
+      <c r="F238" s="9"/>
+      <c r="G238" s="9"/>
+      <c r="H238" s="9"/>
+    </row>
+    <row r="239" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="10"/>
+      <c r="B239" s="11"/>
+      <c r="C239" s="11"/>
+      <c r="D239" s="11"/>
+      <c r="E239" s="11"/>
+      <c r="F239" s="11"/>
+      <c r="G239" s="11"/>
+      <c r="H239" s="12"/>
+    </row>
+    <row r="240" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C240" s="5"/>
+      <c r="D240" s="5"/>
+      <c r="E240" s="5">
+        <v>5</v>
+      </c>
+      <c r="F240" s="5"/>
+      <c r="G240" s="5"/>
+      <c r="H240" s="5"/>
+    </row>
+    <row r="241" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C241" s="7"/>
+      <c r="D241" s="7"/>
+      <c r="E241" s="7">
+        <v>6</v>
+      </c>
+      <c r="F241" s="7"/>
+      <c r="G241" s="7"/>
+      <c r="H241" s="7"/>
+    </row>
+    <row r="242" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C242" s="7"/>
+      <c r="D242" s="7"/>
+      <c r="E242" s="7">
+        <v>7</v>
+      </c>
+      <c r="F242" s="7"/>
+      <c r="G242" s="7"/>
+      <c r="H242" s="7"/>
+    </row>
+    <row r="243" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C243" s="7"/>
+      <c r="D243" s="7"/>
+      <c r="E243" s="7">
+        <v>8</v>
+      </c>
+      <c r="F243" s="7"/>
+      <c r="G243" s="7"/>
+      <c r="H243" s="7"/>
+    </row>
+    <row r="244" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="6"/>
+      <c r="B244" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C244" s="7"/>
+      <c r="D244" s="7"/>
+      <c r="E244" s="7">
+        <v>1</v>
+      </c>
+      <c r="F244" s="7"/>
+      <c r="G244" s="7"/>
+      <c r="H244" s="7"/>
+    </row>
+    <row r="245" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="6"/>
+      <c r="B245" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C245" s="7"/>
+      <c r="D245" s="7"/>
+      <c r="E245" s="7">
+        <v>2</v>
+      </c>
+      <c r="F245" s="7"/>
+      <c r="G245" s="7"/>
+      <c r="H245" s="7"/>
+    </row>
+    <row r="246" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="6"/>
+      <c r="B246" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C246" s="7"/>
+      <c r="D246" s="7"/>
+      <c r="E246" s="7">
+        <v>3</v>
+      </c>
+      <c r="F246" s="7"/>
+      <c r="G246" s="7"/>
+      <c r="H246" s="7"/>
+    </row>
+    <row r="247" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="6"/>
+      <c r="B247" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C247" s="7"/>
+      <c r="D247" s="7"/>
+      <c r="E247" s="7">
+        <v>4</v>
+      </c>
+      <c r="F247" s="7"/>
+      <c r="G247" s="7"/>
+      <c r="H247" s="7"/>
+    </row>
+    <row r="248" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B248" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C248" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D248" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E248" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F248" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G248" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H248" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="1"/>
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2"/>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+      <c r="G249" s="2"/>
+      <c r="H249" s="3"/>
+    </row>
+    <row r="250" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C250" s="5"/>
+      <c r="D250" s="5"/>
+      <c r="E250" s="5">
+        <v>1</v>
+      </c>
+      <c r="F250" s="5"/>
+      <c r="G250" s="5"/>
+      <c r="H250" s="5"/>
+    </row>
+    <row r="251" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C251" s="7"/>
+      <c r="D251" s="7"/>
+      <c r="E251" s="7">
+        <v>2</v>
+      </c>
+      <c r="F251" s="7"/>
+      <c r="G251" s="7"/>
+      <c r="H251" s="7"/>
+    </row>
+    <row r="252" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C252" s="7"/>
+      <c r="D252" s="7"/>
+      <c r="E252" s="7">
+        <v>3</v>
+      </c>
+      <c r="F252" s="7"/>
+      <c r="G252" s="7"/>
+      <c r="H252" s="7"/>
+    </row>
+    <row r="253" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C253" s="7"/>
+      <c r="D253" s="7"/>
+      <c r="E253" s="7">
+        <v>4</v>
+      </c>
+      <c r="F253" s="7"/>
+      <c r="G253" s="7"/>
+      <c r="H253" s="7"/>
+    </row>
+    <row r="254" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="6"/>
+      <c r="B254" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C254" s="7"/>
+      <c r="D254" s="7"/>
+      <c r="E254" s="7">
+        <v>5</v>
+      </c>
+      <c r="F254" s="7"/>
+      <c r="G254" s="7"/>
+      <c r="H254" s="7"/>
+    </row>
+    <row r="255" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="6"/>
+      <c r="B255" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C255" s="7"/>
+      <c r="D255" s="7"/>
+      <c r="E255" s="7">
+        <v>6</v>
+      </c>
+      <c r="F255" s="7"/>
+      <c r="G255" s="7"/>
+      <c r="H255" s="7"/>
+    </row>
+    <row r="256" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="6"/>
+      <c r="B256" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C256" s="7"/>
+      <c r="D256" s="7"/>
+      <c r="E256" s="7">
+        <v>7</v>
+      </c>
+      <c r="F256" s="7"/>
+      <c r="G256" s="7"/>
+      <c r="H256" s="7"/>
+    </row>
+    <row r="257" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="8"/>
+      <c r="B257" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C257" s="9"/>
+      <c r="D257" s="9"/>
+      <c r="E257" s="9">
+        <v>8</v>
+      </c>
+      <c r="F257" s="9"/>
+      <c r="G257" s="9"/>
+      <c r="H257" s="9"/>
+    </row>
+    <row r="258" spans="1:8" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="10"/>
+      <c r="B258" s="11"/>
+      <c r="C258" s="11"/>
+      <c r="D258" s="11"/>
+      <c r="E258" s="11"/>
+      <c r="F258" s="11"/>
+      <c r="G258" s="11"/>
+      <c r="H258" s="12"/>
+    </row>
+    <row r="259" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C259" s="5"/>
+      <c r="D259" s="5"/>
+      <c r="E259" s="5">
+        <v>5</v>
+      </c>
+      <c r="F259" s="5"/>
+      <c r="G259" s="5"/>
+      <c r="H259" s="5"/>
+    </row>
+    <row r="260" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B260" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C260" s="7"/>
+      <c r="D260" s="7"/>
+      <c r="E260" s="7">
+        <v>6</v>
+      </c>
+      <c r="F260" s="7"/>
+      <c r="G260" s="7"/>
+      <c r="H260" s="7"/>
+    </row>
+    <row r="261" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C261" s="7"/>
+      <c r="D261" s="7"/>
+      <c r="E261" s="7">
+        <v>7</v>
+      </c>
+      <c r="F261" s="7"/>
+      <c r="G261" s="7"/>
+      <c r="H261" s="7"/>
+    </row>
+    <row r="262" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C262" s="7"/>
+      <c r="D262" s="7"/>
+      <c r="E262" s="7">
+        <v>8</v>
+      </c>
+      <c r="F262" s="7"/>
+      <c r="G262" s="7"/>
+      <c r="H262" s="7"/>
+    </row>
+    <row r="263" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="6"/>
+      <c r="B263" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C263" s="7"/>
+      <c r="D263" s="7"/>
+      <c r="E263" s="7">
+        <v>1</v>
+      </c>
+      <c r="F263" s="7"/>
+      <c r="G263" s="7"/>
+      <c r="H263" s="7"/>
+    </row>
+    <row r="264" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="6"/>
+      <c r="B264" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C264" s="7"/>
+      <c r="D264" s="7"/>
+      <c r="E264" s="7">
+        <v>2</v>
+      </c>
+      <c r="F264" s="7"/>
+      <c r="G264" s="7"/>
+      <c r="H264" s="7"/>
+    </row>
+    <row r="265" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="6"/>
+      <c r="B265" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C265" s="7"/>
+      <c r="D265" s="7"/>
+      <c r="E265" s="7">
+        <v>3</v>
+      </c>
+      <c r="F265" s="7"/>
+      <c r="G265" s="7"/>
+      <c r="H265" s="7"/>
+    </row>
+    <row r="266" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="6"/>
+      <c r="B266" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C266" s="7"/>
+      <c r="D266" s="7"/>
+      <c r="E266" s="7">
+        <v>4</v>
+      </c>
+      <c r="F266" s="7"/>
+      <c r="G266" s="7"/>
+      <c r="H266" s="7"/>
+    </row>
+    <row r="267" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B267" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C267" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D267" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E267" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F267" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G267" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H267" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="1"/>
+      <c r="B268" s="2"/>
+      <c r="C268" s="2"/>
+      <c r="D268" s="2"/>
+      <c r="E268" s="2"/>
+      <c r="F268" s="2"/>
+      <c r="G268" s="2"/>
+      <c r="H268" s="3"/>
+    </row>
+    <row r="269" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C269" s="5"/>
+      <c r="D269" s="5"/>
+      <c r="E269" s="5">
+        <v>1</v>
+      </c>
+      <c r="F269" s="5"/>
+      <c r="G269" s="5"/>
+      <c r="H269" s="5"/>
+    </row>
+    <row r="270" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B270" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C270" s="7"/>
+      <c r="D270" s="7"/>
+      <c r="E270" s="7">
+        <v>2</v>
+      </c>
+      <c r="F270" s="7"/>
+      <c r="G270" s="7"/>
+      <c r="H270" s="7"/>
+    </row>
+    <row r="271" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B271" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C271" s="7"/>
+      <c r="D271" s="7"/>
+      <c r="E271" s="7">
+        <v>3</v>
+      </c>
+      <c r="F271" s="7"/>
+      <c r="G271" s="7"/>
+      <c r="H271" s="7"/>
+    </row>
+    <row r="272" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B272" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C272" s="7"/>
+      <c r="D272" s="7"/>
+      <c r="E272" s="7">
+        <v>4</v>
+      </c>
+      <c r="F272" s="7"/>
+      <c r="G272" s="7"/>
+      <c r="H272" s="7"/>
+    </row>
+    <row r="273" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="6"/>
+      <c r="B273" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C273" s="7"/>
+      <c r="D273" s="7"/>
+      <c r="E273" s="7">
+        <v>5</v>
+      </c>
+      <c r="F273" s="7"/>
+      <c r="G273" s="7"/>
+      <c r="H273" s="7"/>
+    </row>
+    <row r="274" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="6"/>
+      <c r="B274" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C274" s="7"/>
+      <c r="D274" s="7"/>
+      <c r="E274" s="7">
+        <v>6</v>
+      </c>
+      <c r="F274" s="7"/>
+      <c r="G274" s="7"/>
+      <c r="H274" s="7"/>
+    </row>
+    <row r="275" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="6"/>
+      <c r="B275" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C275" s="7"/>
+      <c r="D275" s="7"/>
+      <c r="E275" s="7">
+        <v>7</v>
+      </c>
+      <c r="F275" s="7"/>
+      <c r="G275" s="7"/>
+      <c r="H275" s="7"/>
+    </row>
+    <row r="276" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="8"/>
+      <c r="B276" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C276" s="9"/>
+      <c r="D276" s="9"/>
+      <c r="E276" s="9">
+        <v>8</v>
+      </c>
+      <c r="F276" s="9"/>
+      <c r="G276" s="9"/>
+      <c r="H276" s="9"/>
+    </row>
+    <row r="277" spans="1:8" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="10"/>
+      <c r="B277" s="11"/>
+      <c r="C277" s="11"/>
+      <c r="D277" s="11"/>
+      <c r="E277" s="11"/>
+      <c r="F277" s="11"/>
+      <c r="G277" s="11"/>
+      <c r="H277" s="12"/>
+    </row>
+    <row r="278" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C278" s="5"/>
+      <c r="D278" s="5"/>
+      <c r="E278" s="5">
+        <v>5</v>
+      </c>
+      <c r="F278" s="5"/>
+      <c r="G278" s="5"/>
+      <c r="H278" s="5"/>
+    </row>
+    <row r="279" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B279" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C279" s="7"/>
+      <c r="D279" s="7"/>
+      <c r="E279" s="7">
+        <v>6</v>
+      </c>
+      <c r="F279" s="7"/>
+      <c r="G279" s="7"/>
+      <c r="H279" s="7"/>
+    </row>
+    <row r="280" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B280" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C280" s="7"/>
+      <c r="D280" s="7"/>
+      <c r="E280" s="7">
+        <v>7</v>
+      </c>
+      <c r="F280" s="7"/>
+      <c r="G280" s="7"/>
+      <c r="H280" s="7"/>
+    </row>
+    <row r="281" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B281" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C281" s="7"/>
+      <c r="D281" s="7"/>
+      <c r="E281" s="7">
+        <v>8</v>
+      </c>
+      <c r="F281" s="7"/>
+      <c r="G281" s="7"/>
+      <c r="H281" s="7"/>
+    </row>
+    <row r="282" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="6"/>
+      <c r="B282" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C282" s="7"/>
+      <c r="D282" s="7"/>
+      <c r="E282" s="7">
+        <v>1</v>
+      </c>
+      <c r="F282" s="7"/>
+      <c r="G282" s="7"/>
+      <c r="H282" s="7"/>
+    </row>
+    <row r="283" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="6"/>
+      <c r="B283" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C283" s="7"/>
+      <c r="D283" s="7"/>
+      <c r="E283" s="7">
+        <v>2</v>
+      </c>
+      <c r="F283" s="7"/>
+      <c r="G283" s="7"/>
+      <c r="H283" s="7"/>
+    </row>
+    <row r="284" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="6"/>
+      <c r="B284" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C284" s="7"/>
+      <c r="D284" s="7"/>
+      <c r="E284" s="7">
+        <v>3</v>
+      </c>
+      <c r="F284" s="7"/>
+      <c r="G284" s="7"/>
+      <c r="H284" s="7"/>
+    </row>
+    <row r="285" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="6"/>
+      <c r="B285" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C285" s="7"/>
+      <c r="D285" s="7"/>
+      <c r="E285" s="7">
+        <v>4</v>
+      </c>
+      <c r="F285" s="7"/>
+      <c r="G285" s="7"/>
+      <c r="H285" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4846,7 +5776,7 @@
   <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="F166" sqref="F166"/>
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4897,14 +5827,14 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="18"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="25"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="15"/>
       <c r="H3" s="5"/>
     </row>
@@ -4915,8 +5845,8 @@
       <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="5">
         <v>1</v>
       </c>
@@ -4968,19 +5898,19 @@
       <c r="E7" s="18">
         <v>4</v>
       </c>
-      <c r="F7" s="29"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="19"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="18"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="28"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
@@ -5033,14 +5963,14 @@
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="25"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
@@ -5104,19 +6034,19 @@
       <c r="E16" s="18">
         <v>4</v>
       </c>
-      <c r="F16" s="29"/>
+      <c r="F16" s="27"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="18"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="28"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="26"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
@@ -5169,14 +6099,14 @@
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="25"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
@@ -5240,53 +6170,53 @@
       <c r="E25" s="18">
         <v>4</v>
       </c>
-      <c r="F25" s="34"/>
+      <c r="F25" s="30"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="36"/>
+      <c r="F26" s="32"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
-      <c r="F27" s="36"/>
+      <c r="F27" s="32"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:8" s="17" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="37" t="s">
+      <c r="H28" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5301,14 +6231,14 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="31"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="14"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="26"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
@@ -5361,14 +6291,14 @@
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="23"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="18"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="25"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="23"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
@@ -5432,19 +6362,19 @@
       <c r="E38" s="18">
         <v>4</v>
       </c>
-      <c r="F38" s="29"/>
+      <c r="F38" s="27"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="23"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="28"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="26"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
     </row>
@@ -5497,14 +6427,14 @@
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="23"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="18"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="25"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="23"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
@@ -5568,19 +6498,19 @@
       <c r="E47" s="18">
         <v>4</v>
       </c>
-      <c r="F47" s="29"/>
+      <c r="F47" s="27"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="23"/>
+      <c r="B48" s="35"/>
       <c r="C48" s="18"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="28"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="26"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
     </row>
@@ -5669,14 +6599,14 @@
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B57" s="23"/>
+      <c r="B57" s="35"/>
       <c r="C57" s="18"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="25"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="23"/>
       <c r="G57" s="15"/>
       <c r="H57" s="5"/>
     </row>
@@ -5740,19 +6670,19 @@
       <c r="E61" s="18">
         <v>4</v>
       </c>
-      <c r="F61" s="29"/>
+      <c r="F61" s="27"/>
       <c r="G61" s="19"/>
       <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B62" s="23"/>
+      <c r="B62" s="35"/>
       <c r="C62" s="18"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="28"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="26"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
     </row>
@@ -5805,14 +6735,14 @@
       <c r="H65" s="7"/>
     </row>
     <row r="66" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B66" s="23"/>
+      <c r="B66" s="35"/>
       <c r="C66" s="18"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="25"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="23"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
     </row>
@@ -5876,19 +6806,19 @@
       <c r="E70" s="18">
         <v>4</v>
       </c>
-      <c r="F70" s="29"/>
+      <c r="F70" s="27"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
     <row r="71" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B71" s="23"/>
+      <c r="B71" s="35"/>
       <c r="C71" s="18"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="28"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="26"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
     </row>
@@ -5941,14 +6871,14 @@
       <c r="H74" s="7"/>
     </row>
     <row r="75" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="B75" s="23"/>
+      <c r="B75" s="35"/>
       <c r="C75" s="18"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="25"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="23"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
     </row>
@@ -6012,53 +6942,53 @@
       <c r="E79" s="18">
         <v>4</v>
       </c>
-      <c r="F79" s="34"/>
+      <c r="F79" s="30"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
     <row r="80" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="35"/>
+      <c r="A80" s="31"/>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
-      <c r="F80" s="36"/>
+      <c r="F80" s="32"/>
       <c r="G80" s="17"/>
       <c r="H80" s="17"/>
     </row>
     <row r="81" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="35"/>
+      <c r="A81" s="31"/>
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
       <c r="E81" s="17"/>
-      <c r="F81" s="36"/>
+      <c r="F81" s="32"/>
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
     </row>
     <row r="82" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="37" t="s">
+      <c r="A82" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="37" t="s">
+      <c r="B82" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="37" t="s">
+      <c r="C82" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D82" s="37" t="s">
+      <c r="D82" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E82" s="37" t="s">
+      <c r="E82" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F82" s="37" t="s">
+      <c r="F82" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G82" s="37" t="s">
+      <c r="G82" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H82" s="37" t="s">
+      <c r="H82" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6073,14 +7003,14 @@
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="B84" s="31"/>
+      <c r="B84" s="37"/>
       <c r="C84" s="14"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="26"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
     </row>
@@ -6133,14 +7063,14 @@
       <c r="H87" s="7"/>
     </row>
     <row r="88" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="22" t="s">
+      <c r="A88" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="B88" s="23"/>
+      <c r="B88" s="35"/>
       <c r="C88" s="18"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="25"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="23"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
     </row>
@@ -6204,19 +7134,19 @@
       <c r="E92" s="18">
         <v>4</v>
       </c>
-      <c r="F92" s="29"/>
+      <c r="F92" s="27"/>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
     <row r="93" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="B93" s="23"/>
+      <c r="B93" s="35"/>
       <c r="C93" s="18"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="28"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="26"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
     </row>
@@ -6269,14 +7199,14 @@
       <c r="H96" s="7"/>
     </row>
     <row r="97" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="22" t="s">
+      <c r="A97" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="B97" s="23"/>
+      <c r="B97" s="35"/>
       <c r="C97" s="18"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="25"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="23"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
     </row>
@@ -6340,19 +7270,19 @@
       <c r="E101" s="18">
         <v>4</v>
       </c>
-      <c r="F101" s="29"/>
+      <c r="F101" s="27"/>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
     </row>
     <row r="102" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="B102" s="23"/>
+      <c r="B102" s="35"/>
       <c r="C102" s="18"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="28"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="26"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
     </row>
@@ -6441,14 +7371,14 @@
       <c r="H110" s="3"/>
     </row>
     <row r="111" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="22" t="s">
+      <c r="A111" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="B111" s="23"/>
+      <c r="B111" s="35"/>
       <c r="C111" s="18"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="25"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="23"/>
       <c r="G111" s="15"/>
       <c r="H111" s="5"/>
     </row>
@@ -6512,19 +7442,19 @@
       <c r="E115" s="18">
         <v>4</v>
       </c>
-      <c r="F115" s="29"/>
+      <c r="F115" s="27"/>
       <c r="G115" s="19"/>
       <c r="H115" s="7"/>
     </row>
     <row r="116" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="22" t="s">
+      <c r="A116" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="B116" s="23"/>
+      <c r="B116" s="35"/>
       <c r="C116" s="18"/>
-      <c r="D116" s="24"/>
-      <c r="E116" s="26"/>
-      <c r="F116" s="28"/>
+      <c r="D116" s="22"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="26"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
     </row>
@@ -6577,14 +7507,14 @@
       <c r="H119" s="7"/>
     </row>
     <row r="120" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="22" t="s">
+      <c r="A120" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="B120" s="23"/>
+      <c r="B120" s="35"/>
       <c r="C120" s="18"/>
-      <c r="D120" s="24"/>
-      <c r="E120" s="26"/>
-      <c r="F120" s="25"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="23"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
     </row>
@@ -6648,19 +7578,19 @@
       <c r="E124" s="18">
         <v>4</v>
       </c>
-      <c r="F124" s="29"/>
+      <c r="F124" s="27"/>
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
     </row>
     <row r="125" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="22" t="s">
+      <c r="A125" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="B125" s="23"/>
+      <c r="B125" s="35"/>
       <c r="C125" s="18"/>
-      <c r="D125" s="24"/>
-      <c r="E125" s="26"/>
-      <c r="F125" s="28"/>
+      <c r="D125" s="22"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="26"/>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
     </row>
@@ -6713,14 +7643,14 @@
       <c r="H128" s="7"/>
     </row>
     <row r="129" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="22" t="s">
+      <c r="A129" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="B129" s="23"/>
+      <c r="B129" s="35"/>
       <c r="C129" s="18"/>
-      <c r="D129" s="24"/>
-      <c r="E129" s="26"/>
-      <c r="F129" s="25"/>
+      <c r="D129" s="22"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="23"/>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
     </row>
@@ -6784,53 +7714,53 @@
       <c r="E133" s="18">
         <v>4</v>
       </c>
-      <c r="F133" s="34"/>
+      <c r="F133" s="30"/>
       <c r="G133" s="7"/>
       <c r="H133" s="7"/>
     </row>
     <row r="134" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="35"/>
+      <c r="A134" s="31"/>
       <c r="B134" s="17"/>
       <c r="C134" s="17"/>
       <c r="D134" s="17"/>
       <c r="E134" s="17"/>
-      <c r="F134" s="36"/>
+      <c r="F134" s="32"/>
       <c r="G134" s="17"/>
       <c r="H134" s="17"/>
     </row>
     <row r="135" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="35"/>
+      <c r="A135" s="31"/>
       <c r="B135" s="17"/>
       <c r="C135" s="17"/>
       <c r="D135" s="17"/>
       <c r="E135" s="17"/>
-      <c r="F135" s="36"/>
+      <c r="F135" s="32"/>
       <c r="G135" s="17"/>
       <c r="H135" s="17"/>
     </row>
     <row r="136" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="37" t="s">
+      <c r="A136" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B136" s="37" t="s">
+      <c r="B136" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C136" s="37" t="s">
+      <c r="C136" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D136" s="37" t="s">
+      <c r="D136" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E136" s="37" t="s">
+      <c r="E136" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F136" s="37" t="s">
+      <c r="F136" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G136" s="37" t="s">
+      <c r="G136" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H136" s="37" t="s">
+      <c r="H136" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6845,14 +7775,14 @@
       <c r="H137" s="3"/>
     </row>
     <row r="138" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="30" t="s">
+      <c r="A138" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="B138" s="31"/>
+      <c r="B138" s="37"/>
       <c r="C138" s="14"/>
-      <c r="D138" s="32"/>
-      <c r="E138" s="33"/>
-      <c r="F138" s="28"/>
+      <c r="D138" s="28"/>
+      <c r="E138" s="29"/>
+      <c r="F138" s="26"/>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
     </row>
@@ -6905,14 +7835,14 @@
       <c r="H141" s="7"/>
     </row>
     <row r="142" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="22" t="s">
+      <c r="A142" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="B142" s="23"/>
+      <c r="B142" s="35"/>
       <c r="C142" s="18"/>
-      <c r="D142" s="24"/>
-      <c r="E142" s="26"/>
-      <c r="F142" s="25"/>
+      <c r="D142" s="22"/>
+      <c r="E142" s="24"/>
+      <c r="F142" s="23"/>
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
     </row>
@@ -6976,19 +7906,19 @@
       <c r="E146" s="18">
         <v>4</v>
       </c>
-      <c r="F146" s="29"/>
+      <c r="F146" s="27"/>
       <c r="G146" s="7"/>
       <c r="H146" s="7"/>
     </row>
     <row r="147" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="22" t="s">
+      <c r="A147" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="B147" s="23"/>
+      <c r="B147" s="35"/>
       <c r="C147" s="18"/>
-      <c r="D147" s="24"/>
-      <c r="E147" s="26"/>
-      <c r="F147" s="28"/>
+      <c r="D147" s="22"/>
+      <c r="E147" s="24"/>
+      <c r="F147" s="26"/>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
     </row>
@@ -7041,14 +7971,14 @@
       <c r="H150" s="7"/>
     </row>
     <row r="151" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="22" t="s">
+      <c r="A151" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="B151" s="23"/>
+      <c r="B151" s="35"/>
       <c r="C151" s="18"/>
-      <c r="D151" s="24"/>
-      <c r="E151" s="26"/>
-      <c r="F151" s="25"/>
+      <c r="D151" s="22"/>
+      <c r="E151" s="24"/>
+      <c r="F151" s="23"/>
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
     </row>
@@ -7112,19 +8042,19 @@
       <c r="E155" s="18">
         <v>4</v>
       </c>
-      <c r="F155" s="29"/>
+      <c r="F155" s="27"/>
       <c r="G155" s="7"/>
       <c r="H155" s="7"/>
     </row>
     <row r="156" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="22" t="s">
+      <c r="A156" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="B156" s="23"/>
+      <c r="B156" s="35"/>
       <c r="C156" s="18"/>
-      <c r="D156" s="24"/>
-      <c r="E156" s="26"/>
-      <c r="F156" s="28"/>
+      <c r="D156" s="22"/>
+      <c r="E156" s="24"/>
+      <c r="F156" s="26"/>
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
     </row>
@@ -7178,11 +8108,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A88:B88"/>
     <mergeCell ref="A156:B156"/>
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="A102:B102"/>
@@ -7190,24 +8133,11 @@
     <mergeCell ref="A116:B116"/>
     <mergeCell ref="A120:B120"/>
     <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A151:B151"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
